--- a/客户服务中心.xlsx
+++ b/客户服务中心.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhs/Desktop/ZT-doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="20080" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="客户服务部" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -262,7 +272,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -275,14 +285,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -318,7 +328,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -531,33 +541,15 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,16 +568,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,6 +606,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -637,7 +647,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -679,12 +689,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -714,12 +724,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -929,373 +939,373 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="8" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17">
-        <v>43333</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="25" t="s">
+      <c r="I2" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="17">
-        <v>43333</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="25" t="s">
+      <c r="I3" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="17">
-        <v>43333</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="26" t="s">
+      <c r="I4" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="21">
-        <v>43333</v>
-      </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="26" t="s">
+      <c r="I5" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="17">
-        <v>43333</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="26" t="s">
+      <c r="I6" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="17">
-        <v>43333</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="27" t="s">
+      <c r="I7" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="17">
-        <v>43333</v>
-      </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="I8" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="21">
-        <v>43333</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="28" t="s">
+      <c r="I9" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="17">
-        <v>43333</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="28" t="s">
+      <c r="I10" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="17">
-        <v>43333</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="29" t="s">
+      <c r="I11" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="17">
-        <v>43333</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="29" t="s">
+      <c r="I12" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="21">
-        <v>43333</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="15">
+      <c r="I13" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="30">
         <v>3</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="16" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="17">
-        <v>43333</v>
-      </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="30" t="s">
+      <c r="I14" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="17">
-        <v>43333</v>
-      </c>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="30" t="s">
+      <c r="I15" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="17">
-        <v>43333</v>
-      </c>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="31" t="s">
+      <c r="I16" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="20" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="21">
-        <v>43333</v>
-      </c>
-      <c r="J17" s="22"/>
+      <c r="I17" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1317,7 +1327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1330,7 +1340,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/客户服务中心.xlsx
+++ b/客户服务中心.xlsx
@@ -1,32 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhs/Desktop/ZT-doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="20080" windowHeight="14520"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="20085" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="客户服务部" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="113">
   <si>
     <t>客服接听统计表</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -263,12 +256,255 @@
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>来电</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xunfen'lieleitong'ji'biao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总电话量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均通话
+时长</t>
+  </si>
+  <si>
+    <t>接听率
+(≥85%)</t>
+  </si>
+  <si>
+    <t>S L
+ (≥85%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 总留言</t>
+  </si>
+  <si>
+    <t>设施维修</t>
+  </si>
+  <si>
+    <t>问题咨询</t>
+  </si>
+  <si>
+    <t>投诉建议</t>
+  </si>
+  <si>
+    <t>维修结果反馈</t>
+  </si>
+  <si>
+    <t>寓客问题咨询</t>
+  </si>
+  <si>
+    <t>寓客维修服务</t>
+  </si>
+  <si>
+    <t>寓客保洁服务</t>
+  </si>
+  <si>
+    <t>寓客搬家服务</t>
+  </si>
+  <si>
+    <t>寓客业主拨打</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       合计</t>
+  </si>
+  <si>
+    <t>咨询表</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xunfen'lieleitong'ji'biao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>找人/公司是否招人</t>
+  </si>
+  <si>
+    <t>找业务部</t>
+  </si>
+  <si>
+    <t>找招聘部</t>
+  </si>
+  <si>
+    <t>收费标准</t>
+  </si>
+  <si>
+    <t>中介费</t>
+  </si>
+  <si>
+    <t>卫生费</t>
+  </si>
+  <si>
+    <t>维修费</t>
+  </si>
+  <si>
+    <t>转租费</t>
+  </si>
+  <si>
+    <t>定金</t>
+  </si>
+  <si>
+    <t>定金交完能否退还</t>
+  </si>
+  <si>
+    <t>定金收取金额标准</t>
+  </si>
+  <si>
+    <t>定金能否转房租</t>
+  </si>
+  <si>
+    <t>押金</t>
+  </si>
+  <si>
+    <t>到期如何退押金</t>
+  </si>
+  <si>
+    <t>退押金需要的手续</t>
+  </si>
+  <si>
+    <t>咨询押金什么时候到账</t>
+  </si>
+  <si>
+    <t>押金条丢失怎么办</t>
+  </si>
+  <si>
+    <t>能否委托他人退押金</t>
+  </si>
+  <si>
+    <t>转租</t>
+  </si>
+  <si>
+    <t>中途不想住了能转租吗</t>
+  </si>
+  <si>
+    <t>转租需要什么手续</t>
+  </si>
+  <si>
+    <t>说了转租还要继续交房租吗</t>
+  </si>
+  <si>
+    <t>开发票</t>
+  </si>
+  <si>
+    <t>开发票需要的资料</t>
+  </si>
+  <si>
+    <t>税金多少</t>
+  </si>
+  <si>
+    <t>汇款</t>
+  </si>
+  <si>
+    <t>给财务打房租金额错了</t>
+  </si>
+  <si>
+    <t>不是该给我公司的款打到我公司了</t>
+  </si>
+  <si>
+    <t>咨询支付房租方式</t>
+  </si>
+  <si>
+    <t>咨询房租未到账</t>
+  </si>
+  <si>
+    <t>房源出租/求租</t>
+  </si>
+  <si>
+    <t>客户想要租房或业主委托代理</t>
+  </si>
+  <si>
+    <t>转维修</t>
+  </si>
+  <si>
+    <t>其他问题咨询</t>
+  </si>
+  <si>
+    <t>门店</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>来电时间</t>
+  </si>
+  <si>
+    <t>投诉性质</t>
+  </si>
+  <si>
+    <t>台账号</t>
+  </si>
+  <si>
+    <t>房屋地址</t>
+  </si>
+  <si>
+    <t>问题来源</t>
+  </si>
+  <si>
+    <t>问题分类</t>
+  </si>
+  <si>
+    <t>客户姓名</t>
+  </si>
+  <si>
+    <t>客户电话</t>
+  </si>
+  <si>
+    <t>出租居室</t>
+  </si>
+  <si>
+    <t>投诉内容</t>
+  </si>
+  <si>
+    <t>责任方</t>
+  </si>
+  <si>
+    <t>投诉结果</t>
+  </si>
+  <si>
+    <t>投诉来源</t>
+  </si>
+  <si>
+    <t>投诉类别</t>
+  </si>
+  <si>
+    <t>投诉明细</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xunfen'lieleitong'ji'biao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话投诉数量</t>
+  </si>
+  <si>
+    <t>上门投诉数量</t>
+  </si>
+  <si>
+    <t>区域数量</t>
+  </si>
+  <si>
+    <t>投诉类别和数量</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xunfen'lieleitong'ji'biao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>各门店投诉量统计</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xunfen'lieleitong'ji'biao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -535,11 +771,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,6 +992,62 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,6 +1085,122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Excel.Sheet.12">
+    <oleItems>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x14">
+          <x14:oleItem name="!投诉类别、数量!R3C1:R34C1" advise="1">
+            <x14:values rows="32">
+              <value t="str">
+                <val>保洁</val>
+              </value>
+              <value t="str">
+                <val>财务</val>
+              </value>
+              <value t="str">
+                <val>打隔断</val>
+              </value>
+              <value t="str">
+                <val>房租</val>
+              </value>
+              <value t="str">
+                <val>房租/押金</val>
+              </value>
+              <value t="str">
+                <val>合同</val>
+              </value>
+              <value t="str">
+                <val>交割</val>
+              </value>
+              <value t="str">
+                <val>居间</val>
+              </value>
+              <value t="str">
+                <val>口头承诺</val>
+              </value>
+              <value t="str">
+                <val>离职工资</val>
+              </value>
+              <value t="str">
+                <val>邻里纠纷</val>
+              </value>
+              <value t="str">
+                <val>漏水</val>
+              </value>
+              <value t="str">
+                <val>乱收费</val>
+              </value>
+              <value t="str">
+                <val>赔偿</val>
+              </value>
+              <value t="str">
+                <val>配备设施</val>
+              </value>
+              <value t="str">
+                <val>配货</val>
+              </value>
+              <value t="str">
+                <val>其打隔</val>
+              </value>
+              <value t="str">
+                <val>其他</val>
+              </value>
+              <value t="str">
+                <val>其他（客户无理）</val>
+              </value>
+              <value t="str">
+                <val>欠费</val>
+              </value>
+              <value t="str">
+                <val>设施配备</val>
+              </value>
+              <value t="str">
+                <val>态度</val>
+              </value>
+              <value t="str">
+                <val>退房</val>
+              </value>
+              <value t="str">
+                <val>违约</val>
+              </value>
+              <value t="str">
+                <val>维修</val>
+              </value>
+              <value t="str">
+                <val>卫生费</val>
+              </value>
+              <value t="str">
+                <val>屋内设施</val>
+              </value>
+              <value t="str">
+                <val>续租</val>
+              </value>
+              <value t="str">
+                <val>押金</val>
+              </value>
+              <value t="str">
+                <val>寓客保洁</val>
+              </value>
+              <value t="str">
+                <val>转租</val>
+              </value>
+              <value t="str">
+                <val>装修</val>
+              </value>
+            </x14:values>
+          </x14:oleItem>
+        </mc:Choice>
+        <mc:Fallback>
+          <oleItem name="!投诉类别、数量!R3C1:R34C1" advise="1"/>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </oleItems>
+  </oleLink>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,7 +1246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -724,7 +1281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -933,25 +1490,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:Z120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -983,11 +1539,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
+    <row r="2" spans="1:10" ht="17.25">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -1005,9 +1561,9 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="28"/>
+    <row r="3" spans="1:10" ht="17.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
@@ -1023,9 +1579,9 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28"/>
+    <row r="4" spans="1:10" ht="17.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
@@ -1041,9 +1597,9 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="28"/>
+    <row r="5" spans="1:10" ht="18" thickBot="1">
+      <c r="A5" s="45"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
@@ -1059,9 +1615,9 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
+    <row r="6" spans="1:10" ht="17.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
@@ -1077,9 +1633,9 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28"/>
+    <row r="7" spans="1:10" ht="17.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
@@ -1095,9 +1651,9 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="29"/>
+    <row r="8" spans="1:10" ht="18" thickBot="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="19" t="s">
         <v>9</v>
       </c>
@@ -1113,11 +1669,11 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+    <row r="9" spans="1:10" ht="18" thickBot="1">
+      <c r="A9" s="44">
         <v>2</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -1135,9 +1691,9 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28"/>
+    <row r="10" spans="1:10" ht="17.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="20" t="s">
         <v>21</v>
       </c>
@@ -1153,9 +1709,9 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="28"/>
+    <row r="11" spans="1:10" ht="17.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="20" t="s">
         <v>22</v>
       </c>
@@ -1171,9 +1727,9 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="28"/>
+    <row r="12" spans="1:10" ht="17.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
@@ -1189,9 +1745,9 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
+    <row r="13" spans="1:10" ht="18" thickBot="1">
+      <c r="A13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="21" t="s">
         <v>24</v>
       </c>
@@ -1207,11 +1763,11 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+    <row r="14" spans="1:10" ht="17.25">
+      <c r="A14" s="50">
         <v>3</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -1235,9 +1791,9 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:10" ht="34.5">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="22" t="s">
         <v>29</v>
       </c>
@@ -1259,9 +1815,9 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+    <row r="16" spans="1:10" ht="17.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="22" t="s">
         <v>33</v>
       </c>
@@ -1283,9 +1839,9 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="37" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+    <row r="17" spans="1:10" ht="35.25" thickBot="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="23" t="s">
         <v>17</v>
       </c>
@@ -1307,17 +1863,1950 @@
       </c>
       <c r="J17" s="14"/>
     </row>
+    <row r="18" spans="1:10" ht="17.25">
+      <c r="A18" s="43">
+        <v>4</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="10">
+        <v>43333</v>
+      </c>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" thickBot="1">
+      <c r="A21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="13">
+        <v>43333</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" thickBot="1">
+      <c r="A22" s="39"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="13">
+        <v>43334</v>
+      </c>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" thickBot="1">
+      <c r="A23" s="39"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="18" thickBot="1">
+      <c r="A24" s="39"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="13">
+        <v>43336</v>
+      </c>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" thickBot="1">
+      <c r="A25" s="39"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="13">
+        <v>43337</v>
+      </c>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" thickBot="1">
+      <c r="A26" s="39"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="13">
+        <v>43338</v>
+      </c>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" thickBot="1">
+      <c r="A27" s="39"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="13">
+        <v>43339</v>
+      </c>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" thickBot="1">
+      <c r="A28" s="39"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="13">
+        <v>43340</v>
+      </c>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" thickBot="1">
+      <c r="A29" s="39"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="13">
+        <v>43341</v>
+      </c>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" thickBot="1">
+      <c r="A30" s="39"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="13">
+        <v>43342</v>
+      </c>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" thickBot="1">
+      <c r="A31" s="39"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="13">
+        <v>43343</v>
+      </c>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" thickBot="1">
+      <c r="A32" s="39"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="13">
+        <v>43344</v>
+      </c>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" thickBot="1">
+      <c r="A33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="13">
+        <v>43345</v>
+      </c>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" thickBot="1">
+      <c r="A34" s="38">
+        <v>5</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" thickBot="1">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" thickBot="1">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" thickBot="1">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" ht="18" thickBot="1">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" ht="18" thickBot="1">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" ht="18" thickBot="1">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" ht="18" thickBot="1">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="18" thickBot="1">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" thickBot="1">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" ht="18" thickBot="1">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" ht="18" thickBot="1">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:10" ht="18" thickBot="1">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" ht="18" thickBot="1">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10" ht="18" thickBot="1">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" ht="18" thickBot="1">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" ht="18" thickBot="1">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" ht="18" thickBot="1">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J51" s="14"/>
+      <c r="K51" s="28"/>
+    </row>
+    <row r="52" spans="1:11" ht="18" thickBot="1">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J52" s="14"/>
+      <c r="K52" s="28"/>
+    </row>
+    <row r="53" spans="1:11" ht="18" thickBot="1">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="28"/>
+    </row>
+    <row r="54" spans="1:11" ht="18" thickBot="1">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J54" s="14"/>
+      <c r="K54" s="28"/>
+    </row>
+    <row r="55" spans="1:11" ht="18" thickBot="1">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J55" s="14"/>
+      <c r="K55" s="28"/>
+    </row>
+    <row r="56" spans="1:11" ht="18" thickBot="1">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J56" s="14"/>
+      <c r="K56" s="28"/>
+    </row>
+    <row r="57" spans="1:11" ht="18" thickBot="1">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="28"/>
+    </row>
+    <row r="58" spans="1:11" ht="18" thickBot="1">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J58" s="14"/>
+      <c r="K58" s="28"/>
+    </row>
+    <row r="59" spans="1:11" ht="18" thickBot="1">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="28"/>
+    </row>
+    <row r="60" spans="1:11" ht="18" thickBot="1">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="K60" s="28"/>
+    </row>
+    <row r="61" spans="1:11" ht="18" thickBot="1">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J61" s="14"/>
+      <c r="K61" s="28"/>
+    </row>
+    <row r="62" spans="1:11" ht="18" thickBot="1">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J62" s="14"/>
+      <c r="K62" s="28"/>
+    </row>
+    <row r="63" spans="1:11" ht="18" thickBot="1">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="K63" s="28"/>
+    </row>
+    <row r="64" spans="1:11" ht="18" thickBot="1">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J64" s="14"/>
+      <c r="K64" s="28"/>
+    </row>
+    <row r="65" spans="1:26" ht="18" thickBot="1">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J65" s="14"/>
+      <c r="K65" s="28"/>
+    </row>
+    <row r="66" spans="1:26" ht="18" thickBot="1">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J66" s="14"/>
+      <c r="K66" s="28"/>
+    </row>
+    <row r="67" spans="1:26" ht="18" thickBot="1">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="28"/>
+    </row>
+    <row r="68" spans="1:26" ht="18" thickBot="1">
+      <c r="A68" s="38">
+        <v>6</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J68" s="26"/>
+      <c r="K68" s="28"/>
+    </row>
+    <row r="69" spans="1:26" ht="18" thickBot="1">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J69" s="26"/>
+      <c r="K69" s="28"/>
+    </row>
+    <row r="70" spans="1:26" ht="18" thickBot="1">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J70" s="26"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+    </row>
+    <row r="71" spans="1:26" ht="18" thickBot="1">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J71" s="14"/>
+    </row>
+    <row r="72" spans="1:26" ht="18" thickBot="1">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J72" s="14"/>
+      <c r="K72" s="28"/>
+    </row>
+    <row r="73" spans="1:26" ht="18" thickBot="1">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J73" s="14"/>
+      <c r="K73" s="28"/>
+    </row>
+    <row r="74" spans="1:26" ht="18" thickBot="1">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J74" s="14"/>
+      <c r="K74" s="28"/>
+    </row>
+    <row r="75" spans="1:26" ht="18" thickBot="1">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J75" s="14"/>
+      <c r="K75" s="28"/>
+    </row>
+    <row r="76" spans="1:26" ht="18" thickBot="1">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J76" s="14"/>
+      <c r="K76" s="28"/>
+    </row>
+    <row r="77" spans="1:26" ht="18" thickBot="1">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J77" s="14"/>
+      <c r="K77" s="28"/>
+    </row>
+    <row r="78" spans="1:26" ht="18" thickBot="1">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J78" s="14"/>
+      <c r="K78" s="28"/>
+    </row>
+    <row r="79" spans="1:26" ht="18" thickBot="1">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J79" s="14"/>
+      <c r="K79" s="28"/>
+    </row>
+    <row r="80" spans="1:26" ht="18" thickBot="1">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J80" s="14"/>
+      <c r="K80" s="28"/>
+    </row>
+    <row r="81" spans="1:11" ht="18" thickBot="1">
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J81" s="14"/>
+      <c r="K81" s="28"/>
+    </row>
+    <row r="82" spans="1:11" ht="18" thickBot="1">
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J82" s="14"/>
+      <c r="K82" s="28"/>
+    </row>
+    <row r="83" spans="1:11" ht="18" thickBot="1">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J83" s="14"/>
+      <c r="K83" s="28"/>
+    </row>
+    <row r="84" spans="1:11" ht="18" thickBot="1">
+      <c r="A84" s="32">
+        <v>7</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f t="array" ref="C84:C115">[1]!'!投诉类别、数量!R3C1:R34C1'</f>
+        <v>保洁</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="1:11" ht="18" thickBot="1">
+      <c r="A85" s="33"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="1" t="str">
+        <v>财务</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="1:11" ht="18" thickBot="1">
+      <c r="A86" s="33"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="1" t="str">
+        <v>打隔断</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J86" s="26"/>
+    </row>
+    <row r="87" spans="1:11" ht="18" thickBot="1">
+      <c r="A87" s="33"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="1" t="str">
+        <v>房租</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J87" s="14"/>
+    </row>
+    <row r="88" spans="1:11" ht="18" thickBot="1">
+      <c r="A88" s="33"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="1" t="str">
+        <v>房租/押金</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J88" s="14"/>
+    </row>
+    <row r="89" spans="1:11" ht="18" thickBot="1">
+      <c r="A89" s="33"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="1" t="str">
+        <v>合同</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J89" s="14"/>
+    </row>
+    <row r="90" spans="1:11" ht="18" thickBot="1">
+      <c r="A90" s="33"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="1" t="str">
+        <v>交割</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J90" s="14"/>
+    </row>
+    <row r="91" spans="1:11" ht="18" thickBot="1">
+      <c r="A91" s="33"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="1" t="str">
+        <v>居间</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J91" s="14"/>
+    </row>
+    <row r="92" spans="1:11" ht="18" thickBot="1">
+      <c r="A92" s="33"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="1" t="str">
+        <v>口头承诺</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J92" s="14"/>
+    </row>
+    <row r="93" spans="1:11" ht="18" thickBot="1">
+      <c r="A93" s="33"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="1" t="str">
+        <v>离职工资</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J93" s="14"/>
+    </row>
+    <row r="94" spans="1:11" ht="18" thickBot="1">
+      <c r="A94" s="33"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="1" t="str">
+        <v>邻里纠纷</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J94" s="14"/>
+    </row>
+    <row r="95" spans="1:11" ht="18" thickBot="1">
+      <c r="A95" s="33"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="1" t="str">
+        <v>漏水</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J95" s="14"/>
+    </row>
+    <row r="96" spans="1:11" ht="18" thickBot="1">
+      <c r="A96" s="33"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="1" t="str">
+        <v>乱收费</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J96" s="14"/>
+    </row>
+    <row r="97" spans="1:10" ht="18" thickBot="1">
+      <c r="A97" s="33"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="1" t="str">
+        <v>赔偿</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J97" s="14"/>
+    </row>
+    <row r="98" spans="1:10" ht="18" thickBot="1">
+      <c r="A98" s="33"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="1" t="str">
+        <v>配备设施</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J98" s="14"/>
+    </row>
+    <row r="99" spans="1:10" ht="18" thickBot="1">
+      <c r="A99" s="33"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="1" t="str">
+        <v>配货</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J99" s="14"/>
+    </row>
+    <row r="100" spans="1:10" ht="18" thickBot="1">
+      <c r="A100" s="33"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="1" t="str">
+        <v>其打隔</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J100" s="14"/>
+    </row>
+    <row r="101" spans="1:10" ht="18" thickBot="1">
+      <c r="A101" s="33"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="1" t="str">
+        <v>其他</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J101" s="14"/>
+    </row>
+    <row r="102" spans="1:10" ht="18" thickBot="1">
+      <c r="A102" s="33"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="1" t="str">
+        <v>其他（客户无理）</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J102" s="14"/>
+    </row>
+    <row r="103" spans="1:10" ht="18" thickBot="1">
+      <c r="A103" s="33"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="1" t="str">
+        <v>欠费</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J103" s="14"/>
+    </row>
+    <row r="104" spans="1:10" ht="18" thickBot="1">
+      <c r="A104" s="33"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="1" t="str">
+        <v>设施配备</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J104" s="14"/>
+    </row>
+    <row r="105" spans="1:10" ht="18" thickBot="1">
+      <c r="A105" s="33"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="1" t="str">
+        <v>态度</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J105" s="14"/>
+    </row>
+    <row r="106" spans="1:10" ht="18" thickBot="1">
+      <c r="A106" s="33"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="1" t="str">
+        <v>退房</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J106" s="14"/>
+    </row>
+    <row r="107" spans="1:10" ht="18" thickBot="1">
+      <c r="A107" s="33"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="1" t="str">
+        <v>违约</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J107" s="14"/>
+    </row>
+    <row r="108" spans="1:10" ht="18" thickBot="1">
+      <c r="A108" s="33"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="1" t="str">
+        <v>维修</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I108" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J108" s="14"/>
+    </row>
+    <row r="109" spans="1:10" ht="18" thickBot="1">
+      <c r="A109" s="33"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="1" t="str">
+        <v>卫生费</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J109" s="14"/>
+    </row>
+    <row r="110" spans="1:10" ht="18" thickBot="1">
+      <c r="A110" s="33"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="1" t="str">
+        <v>屋内设施</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J110" s="14"/>
+    </row>
+    <row r="111" spans="1:10" ht="18" thickBot="1">
+      <c r="A111" s="33"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="1" t="str">
+        <v>续租</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I111" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J111" s="14"/>
+    </row>
+    <row r="112" spans="1:10" ht="18" thickBot="1">
+      <c r="A112" s="33"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="1" t="str">
+        <v>押金</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I112" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J112" s="14"/>
+    </row>
+    <row r="113" spans="1:10" ht="18" thickBot="1">
+      <c r="A113" s="33"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="1" t="str">
+        <v>寓客保洁</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J113" s="14"/>
+    </row>
+    <row r="114" spans="1:10" ht="18" thickBot="1">
+      <c r="A114" s="33"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="1" t="str">
+        <v>转租</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I114" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J114" s="14"/>
+    </row>
+    <row r="115" spans="1:10" ht="18" thickBot="1">
+      <c r="A115" s="33"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="1" t="str">
+        <v>装修</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I115" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J115" s="14"/>
+    </row>
+    <row r="116" spans="1:10" ht="18" thickBot="1">
+      <c r="A116" s="32">
+        <v>8</v>
+      </c>
+      <c r="B116" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I116" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J116" s="31"/>
+    </row>
+    <row r="117" spans="1:10" ht="18" thickBot="1">
+      <c r="A117" s="33"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I117" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J117" s="31"/>
+    </row>
+    <row r="118" spans="1:10" ht="18" thickBot="1">
+      <c r="A118" s="33"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I118" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J118" s="31"/>
+    </row>
+    <row r="119" spans="1:10" ht="18" thickBot="1">
+      <c r="A119" s="33"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I119" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J119" s="14"/>
+    </row>
+    <row r="120" spans="1:10" ht="18" thickBot="1">
+      <c r="A120" s="34"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120" s="13">
+        <v>43335</v>
+      </c>
+      <c r="J120" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="16">
+    <mergeCell ref="B34:B67"/>
+    <mergeCell ref="A34:A67"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="A18:A33"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="A68:A83"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="B84:B115"/>
+    <mergeCell ref="A84:A115"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1327,7 +3816,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1340,7 +3829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
